--- a/工作宝客户端测试文档/审批管理测试文档.xlsx
+++ b/工作宝客户端测试文档/审批管理测试文档.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>审批管理测试文档</t>
   </si>
@@ -27,6 +27,168 @@
   </si>
   <si>
     <t>验收结果</t>
+  </si>
+  <si>
+    <t>审批管理的流程(有审批流程和无审批流程的)</t>
+  </si>
+  <si>
+    <t>在后台添加审批管理的类型，有审批流程的和没有审批流程的</t>
+  </si>
+  <si>
+    <t>当选择的没有审批流程的类型的时候，有选择审批人员的一项。有审批流程的则没有</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>无审批流程的人员选择</t>
+  </si>
+  <si>
+    <t>选择无审批流程类型，点击进入人员选择</t>
+  </si>
+  <si>
+    <t>进入人员选择页面，选择人员后保存返回(所选人员要求是单个审批人员)</t>
+  </si>
+  <si>
+    <t>有审批流程的上报</t>
+  </si>
+  <si>
+    <t>选择类型，填写标题，拍照、填写内容</t>
+  </si>
+  <si>
+    <t>上报成功，注意 标题为必填项200字以内，内容必填1000字以内。</t>
+  </si>
+  <si>
+    <t>无审批流程的上报</t>
+  </si>
+  <si>
+    <t>选择类型，选择审批人员、填写标题，拍照、填写内容</t>
+  </si>
+  <si>
+    <t>审批管理—申请列表</t>
+  </si>
+  <si>
+    <t>打开进入审批管理的申请列表</t>
+  </si>
+  <si>
+    <t>显示申请的审批</t>
+  </si>
+  <si>
+    <t>审批管理—申请列表刷新</t>
+  </si>
+  <si>
+    <t>点击下拉进行刷新，上拉加载更多的数据</t>
+  </si>
+  <si>
+    <t>上拉刷新列表为第一页内容，上拉加载下页数据。</t>
+  </si>
+  <si>
+    <t>审批管理—申请列表查询</t>
+  </si>
+  <si>
+    <t>部门查询</t>
+  </si>
+  <si>
+    <t>显示所选部门下的申请单</t>
+  </si>
+  <si>
+    <t>审批类型查询</t>
+  </si>
+  <si>
+    <t>显示所选审批类型下的申请单</t>
+  </si>
+  <si>
+    <t>筛选条件查询(姓名、开始日期、结束日期)</t>
+  </si>
+  <si>
+    <t>显示所选条件下的申请单</t>
+  </si>
+  <si>
+    <t>审核状态查询(待审核、审核通过、审核拒绝)</t>
+  </si>
+  <si>
+    <t>显示所选审核状态下的申请单</t>
+  </si>
+  <si>
+    <t>审批管理—审核列表</t>
+  </si>
+  <si>
+    <t>打开进入审批管理的审核列表</t>
+  </si>
+  <si>
+    <t>显示审核的审批</t>
+  </si>
+  <si>
+    <t>审批管理—审核列表刷新</t>
+  </si>
+  <si>
+    <t>显示所选部门下的审核单</t>
+  </si>
+  <si>
+    <t>显示所选审批类型下的审核单</t>
+  </si>
+  <si>
+    <t>显示所选条件下的审核单</t>
+  </si>
+  <si>
+    <t>审核状态查询(待处理、已处理)</t>
+  </si>
+  <si>
+    <t>显示所选审核状态下的审核单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">审批管理—详情 </t>
+  </si>
+  <si>
+    <t>点击列表进入详情</t>
+  </si>
+  <si>
+    <t>显示与列表对应的审批详情，显示正确</t>
+  </si>
+  <si>
+    <t>审批管理—详情 页面刷新</t>
+  </si>
+  <si>
+    <t>点击右上角的刷新按钮</t>
+  </si>
+  <si>
+    <t>刷新详情页面</t>
+  </si>
+  <si>
+    <t>审批管理—详情 审批状态</t>
+  </si>
+  <si>
+    <t>点击列表进入详情页</t>
+  </si>
+  <si>
+    <t>当该你审批的时候，bottom按钮为 回复、审批、上传，否则为回复、上传。</t>
+  </si>
+  <si>
+    <t>审批管理—详情 回复</t>
+  </si>
+  <si>
+    <t>点击bottom的回复按钮，进入回复填写</t>
+  </si>
+  <si>
+    <t>填写回复内容，限制1000字内，保存成功，回到详情页，刷新回复列表。列表页显示回复条数。</t>
+  </si>
+  <si>
+    <t>审批管理—详情 审批</t>
+  </si>
+  <si>
+    <t>点击bottom的审批按钮，进入审批</t>
+  </si>
+  <si>
+    <t>填写审批结果(同意并流转、同意并结束、不同意)，同意并流转时需要选择审批人员，当为不同意的时候，审批意见为必填项，点击保存审批成功。</t>
+  </si>
+  <si>
+    <t>审批管理—详情 上传</t>
+  </si>
+  <si>
+    <t>点击bottom的上传按钮，进入审批上报页面</t>
+  </si>
+  <si>
+    <t>进入上报页面，将审批详情的类型带过去</t>
   </si>
 </sst>
 </file>
@@ -36,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -48,30 +210,34 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="10"/>
-      <color indexed="9"/>
+      <sz val="13"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="10"/>
+      <color indexed="12"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="13"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -85,8 +251,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -96,6 +274,41 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
       </left>
       <right style="thin">
@@ -105,7 +318,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -114,10 +327,21 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -126,13 +350,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -147,7 +371,7 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -159,7 +383,7 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
@@ -171,7 +395,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -196,6 +420,19 @@
       </top>
       <bottom style="thin">
         <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -205,41 +442,68 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -259,9 +523,11 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffbfbfbf"/>
       <rgbColor rgb="fffefffe"/>
       <rgbColor rgb="ff004c7f"/>
-      <rgbColor rgb="ffbfbfbf"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffececec"/>
     </indexedColors>
@@ -280,10 +546,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -460,11 +726,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -473,27 +742,27 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -750,10 +1019,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1044,7 +1313,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1325,11 +1594,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D23"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1337,159 +1604,432 @@
     <col min="2" max="2" width="33.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.3516" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.3516" style="1" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="20.2" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="A3" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="19.95" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="19.95" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="A5" t="s" s="13">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="19.95" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="19.95" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="A7" t="s" s="13">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="19.95" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="19.95" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" t="s" s="13">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s" s="17">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="19.95" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" ht="19.95" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" t="s" s="13">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s" s="17">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" ht="19.95" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="A12" t="s" s="13">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="14">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s" s="18">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" ht="19.95" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" ht="19.95" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="A14" t="s" s="13">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s" s="17">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" ht="19.95" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" ht="19.95" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" t="s" s="16">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s" s="17">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" ht="19.95" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" ht="19.95" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" ht="19.95" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" t="s" s="13">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s" s="14">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s" s="15">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" ht="19.95" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="A20" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s" s="19">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" ht="19.95" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" ht="19.95" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="A22" t="s" s="13">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s" s="17">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" ht="19.95" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s" s="15">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" ht="19.95" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" t="s" s="16">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s" s="17">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" ht="19.95" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" t="s" s="14">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s" s="15">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" ht="19.95" customHeight="1">
+      <c r="A26" t="s" s="13">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s" s="14">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s" s="15">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" ht="17" customHeight="1">
+      <c r="A27" t="s" s="13">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s" s="14">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s" s="15">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" ht="31.25" customHeight="1">
+      <c r="A28" t="s" s="13">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s" s="14">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s" s="15">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" ht="45.25" customHeight="1">
+      <c r="A29" t="s" s="13">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s" s="14">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s" s="15">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" ht="59.55" customHeight="1">
+      <c r="A30" t="s" s="13">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s" s="14">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s" s="15">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" ht="17" customHeight="1">
+      <c r="A31" t="s" s="13">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s" s="15">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="E31" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="30">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D12:D13"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
